--- a/biology/Zoologie/Agama_hispida/Agama_hispida.xlsx
+++ b/biology/Zoologie/Agama_hispida/Agama_hispida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agama hispida est une espèce de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agama hispida est une espèce de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, en Namibie, en Angola, au Botswana, au Zimbabwe, au Mozambique et au Malawi[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, en Namibie, en Angola, au Botswana, au Zimbabwe, au Mozambique et au Malawi.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (29 mars 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (29 mars 2012) :
 Agama hispida makarikarika FitzSimons, 1932
 Agama hispida hispida (Kaup, 1827)</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Agama hispida Spix, 1825 est synonyme de Tropidurus hispidus (Spix, 1825)</t>
         </is>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Kaup, 1827 : Zoologische Monographien. Isis von Oken, vol. 20, p. 610-625 (texte intégral).
 FitzSimons, 1932 : Preliminary descriptions of new forms of South African Reptilia and Amphibia, from the Vernay-Lang Kalahari Expedition, 1930. Annals of the Transvaal Museum, vol. 15, no 1, p. 35-40 (texte intégral).</t>
